--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H2">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I2">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J2">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N2">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O2">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P2">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q2">
-        <v>1.787559165519111</v>
+        <v>10.41104033537089</v>
       </c>
       <c r="R2">
-        <v>16.088032489672</v>
+        <v>93.69936301833799</v>
       </c>
       <c r="S2">
-        <v>5.57102233421253E-05</v>
+        <v>0.0002983122902206933</v>
       </c>
       <c r="T2">
-        <v>6.010983966810735E-05</v>
+        <v>0.000328234916136136</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H3">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I3">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J3">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.340352</v>
       </c>
       <c r="O3">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P3">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q3">
-        <v>1.409127695047111</v>
+        <v>2.034888444785778</v>
       </c>
       <c r="R3">
-        <v>12.682149255424</v>
+        <v>18.313996003072</v>
       </c>
       <c r="S3">
-        <v>4.391620715158337E-05</v>
+        <v>5.830658731052211E-05</v>
       </c>
       <c r="T3">
-        <v>4.738441191487709E-05</v>
+        <v>6.415511000869227E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H4">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I4">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J4">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N4">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O4">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P4">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q4">
-        <v>1233.558768991232</v>
+        <v>2441.134989198718</v>
       </c>
       <c r="R4">
-        <v>11102.02892092109</v>
+        <v>21970.21490278846</v>
       </c>
       <c r="S4">
-        <v>0.03844450905555439</v>
+        <v>0.06994695495431431</v>
       </c>
       <c r="T4">
-        <v>0.04148059614223612</v>
+        <v>0.07696308079168379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H5">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I5">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J5">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N5">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O5">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P5">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q5">
-        <v>7.590464860571999</v>
+        <v>21.91205940626266</v>
       </c>
       <c r="R5">
-        <v>45.542789163432</v>
+        <v>131.472356437576</v>
       </c>
       <c r="S5">
-        <v>0.0002365608371514902</v>
+        <v>0.000627856238605307</v>
       </c>
       <c r="T5">
-        <v>0.0001701618738282476</v>
+        <v>0.0004605561500035198</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H6">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I6">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J6">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N6">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O6">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P6">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q6">
-        <v>1723.134668884212</v>
+        <v>1806.642468490278</v>
       </c>
       <c r="R6">
-        <v>15508.21201995791</v>
+        <v>16259.7822164125</v>
       </c>
       <c r="S6">
-        <v>0.05370239995621129</v>
+        <v>0.05176655118262031</v>
       </c>
       <c r="T6">
-        <v>0.05794345198252956</v>
+        <v>0.05695906653230373</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>172.32992</v>
       </c>
       <c r="I7">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J7">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N7">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O7">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P7">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q7">
-        <v>8.267164104391112</v>
+        <v>33.34264184259556</v>
       </c>
       <c r="R7">
-        <v>74.40447693952001</v>
+        <v>300.08377658336</v>
       </c>
       <c r="S7">
-        <v>0.000257650525669667</v>
+        <v>0.0009553819339533523</v>
       </c>
       <c r="T7">
-        <v>0.0002779980200994188</v>
+        <v>0.00105121283718201</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>172.32992</v>
       </c>
       <c r="I8">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J8">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.340352</v>
       </c>
       <c r="O8">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P8">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q8">
         <v>6.516981436871111</v>
@@ -948,10 +948,10 @@
         <v>58.65283293184</v>
       </c>
       <c r="S8">
-        <v>0.0002031051605831129</v>
+        <v>0.0001867340433937055</v>
       </c>
       <c r="T8">
-        <v>0.0002191450313067505</v>
+        <v>0.0002054646592929505</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>172.32992</v>
       </c>
       <c r="I9">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J9">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N9">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O9">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P9">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q9">
-        <v>5705.004327898525</v>
+        <v>7818.036143587913</v>
       </c>
       <c r="R9">
-        <v>51345.03895108672</v>
+        <v>70362.32529229121</v>
       </c>
       <c r="S9">
-        <v>0.1777994661131793</v>
+        <v>0.2240137576931963</v>
       </c>
       <c r="T9">
-        <v>0.1918408643868592</v>
+        <v>0.2464837667779952</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>172.32992</v>
       </c>
       <c r="I10">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J10">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N10">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O10">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P10">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q10">
-        <v>35.10463868352001</v>
+        <v>70.17607513578666</v>
       </c>
       <c r="R10">
-        <v>210.62783210112</v>
+        <v>421.05645081472</v>
       </c>
       <c r="S10">
-        <v>0.001094054562851673</v>
+        <v>0.002010787108501793</v>
       </c>
       <c r="T10">
-        <v>0.0007869703909018826</v>
+        <v>0.001474987922753545</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>172.32992</v>
       </c>
       <c r="I11">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J11">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N11">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O11">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P11">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q11">
-        <v>7969.211512780622</v>
+        <v>5785.99552244921</v>
       </c>
       <c r="R11">
-        <v>71722.9036150256</v>
+        <v>52073.95970204289</v>
       </c>
       <c r="S11">
-        <v>0.248364676146938</v>
+        <v>0.1657887703733511</v>
       </c>
       <c r="T11">
-        <v>0.2679788370391464</v>
+        <v>0.1824184417596455</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H12">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I12">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J12">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N12">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O12">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P12">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q12">
-        <v>2.392757883140444</v>
+        <v>5.587515807451111</v>
       </c>
       <c r="R12">
-        <v>21.534820948264</v>
+        <v>50.28764226706</v>
       </c>
       <c r="S12">
-        <v>7.457156028436922E-05</v>
+        <v>0.0001601016405154181</v>
       </c>
       <c r="T12">
-        <v>8.046071732590962E-05</v>
+        <v>0.000176160856493571</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H13">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I13">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J13">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.340352</v>
       </c>
       <c r="O13">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P13">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q13">
-        <v>1.886204085276444</v>
+        <v>1.092107127182222</v>
       </c>
       <c r="R13">
-        <v>16.975836767488</v>
+        <v>9.82896414464</v>
       </c>
       <c r="S13">
-        <v>5.878454424699514E-05</v>
+        <v>3.129264394156865E-05</v>
       </c>
       <c r="T13">
-        <v>6.342694962735432E-05</v>
+        <v>3.4431495773238E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H14">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I14">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J14">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N14">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O14">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P14">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q14">
-        <v>1651.194279750533</v>
+        <v>1310.136153630022</v>
       </c>
       <c r="R14">
-        <v>14860.7485177548</v>
+        <v>11791.2253826702</v>
       </c>
       <c r="S14">
-        <v>0.05146033982009672</v>
+        <v>0.03753992914257391</v>
       </c>
       <c r="T14">
-        <v>0.05552432911381554</v>
+        <v>0.04130542353703699</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H15">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I15">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J15">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,28 +1364,28 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N15">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O15">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P15">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q15">
-        <v>10.160304051564</v>
+        <v>11.76001382785333</v>
       </c>
       <c r="R15">
-        <v>60.96182430938401</v>
+        <v>70.56008296712</v>
       </c>
       <c r="S15">
-        <v>0.0003166512297074956</v>
+        <v>0.0003369650433583662</v>
       </c>
       <c r="T15">
-        <v>0.000227772133569772</v>
+        <v>0.0002471765246764667</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H16">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I16">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J16">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N16">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O16">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P16">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q16">
-        <v>2306.521732100518</v>
+        <v>969.6094747424979</v>
       </c>
       <c r="R16">
-        <v>20758.69558890467</v>
+        <v>8726.485272682481</v>
       </c>
       <c r="S16">
-        <v>0.07188396519533935</v>
+        <v>0.02778266279954949</v>
       </c>
       <c r="T16">
-        <v>0.07756087416961371</v>
+        <v>0.03056944112930179</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H17">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I17">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J17">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N17">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O17">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P17">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q17">
-        <v>4.198268335776667</v>
+        <v>22.8103225975515</v>
       </c>
       <c r="R17">
-        <v>25.18961001466</v>
+        <v>136.861935585309</v>
       </c>
       <c r="S17">
-        <v>0.000130841244948874</v>
+        <v>0.0006535945837833515</v>
       </c>
       <c r="T17">
-        <v>9.411613385635537E-05</v>
+        <v>0.0004794361936087147</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H18">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I18">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J18">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.340352</v>
       </c>
       <c r="O18">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P18">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q18">
-        <v>3.309482727786666</v>
+        <v>4.458388439615999</v>
       </c>
       <c r="R18">
-        <v>19.85689636672</v>
+        <v>26.750330637696</v>
       </c>
       <c r="S18">
-        <v>0.000103141773133064</v>
+        <v>0.0001277482387227666</v>
       </c>
       <c r="T18">
-        <v>7.41914747919618E-05</v>
+        <v>9.370813472616281E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H19">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I19">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J19">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N19">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O19">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P19">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q19">
-        <v>2897.140872353501</v>
+        <v>5348.464208578005</v>
       </c>
       <c r="R19">
-        <v>17382.84523412101</v>
+        <v>32090.78525146803</v>
       </c>
       <c r="S19">
-        <v>0.09029092192623583</v>
+        <v>0.1532519859522255</v>
       </c>
       <c r="T19">
-        <v>0.06494765849517754</v>
+        <v>0.112416091918329</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H20">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I20">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J20">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,28 +1674,28 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N20">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O20">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P20">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q20">
-        <v>17.826994984365</v>
+        <v>48.00876067451699</v>
       </c>
       <c r="R20">
-        <v>71.30797993746</v>
+        <v>192.035042698068</v>
       </c>
       <c r="S20">
-        <v>0.0005555876925670934</v>
+        <v>0.001375616930309599</v>
       </c>
       <c r="T20">
-        <v>0.0002664285545077691</v>
+        <v>0.0006727111487712404</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H21">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I21">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J21">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N21">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O21">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P21">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q21">
-        <v>4046.960715034445</v>
+        <v>3958.307354231562</v>
       </c>
       <c r="R21">
-        <v>24281.76429020667</v>
+        <v>23749.84412538937</v>
       </c>
       <c r="S21">
-        <v>0.1261256632173643</v>
+        <v>0.1134191871514024</v>
       </c>
       <c r="T21">
-        <v>0.09072414288571935</v>
+        <v>0.08319723681811809</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H22">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I22">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J22">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N22">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O22">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P22">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q22">
-        <v>2.682746608648889</v>
+        <v>12.69942993020655</v>
       </c>
       <c r="R22">
-        <v>24.14471947784</v>
+        <v>114.294869371859</v>
       </c>
       <c r="S22">
-        <v>8.360921172349357E-05</v>
+        <v>0.0003638825616789022</v>
       </c>
       <c r="T22">
-        <v>9.02121012980364E-05</v>
+        <v>0.0004003823041541973</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H23">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I23">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J23">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.340352</v>
       </c>
       <c r="O23">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P23">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q23">
-        <v>2.114801354808889</v>
+        <v>2.482165315655111</v>
       </c>
       <c r="R23">
-        <v>19.03321219328</v>
+        <v>22.339487840896</v>
       </c>
       <c r="S23">
-        <v>6.590889861059137E-05</v>
+        <v>7.112261562408668E-05</v>
       </c>
       <c r="T23">
-        <v>7.11139372724161E-05</v>
+        <v>7.825666772724652E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H24">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I24">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J24">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N24">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O24">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P24">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q24">
-        <v>1851.309689723916</v>
+        <v>2977.706525656281</v>
       </c>
       <c r="R24">
-        <v>16661.78720751524</v>
+        <v>26799.35873090653</v>
       </c>
       <c r="S24">
-        <v>0.05769704202210778</v>
+        <v>0.0853215840741418</v>
       </c>
       <c r="T24">
-        <v>0.06225356383826414</v>
+        <v>0.09387988330101839</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H25">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I25">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J25">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1984,28 +1984,28 @@
         <v>0.5</v>
       </c>
       <c r="M25">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N25">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O25">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P25">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q25">
-        <v>11.39167545084</v>
+        <v>26.72842041644466</v>
       </c>
       <c r="R25">
-        <v>68.35005270504</v>
+        <v>160.370522498668</v>
       </c>
       <c r="S25">
-        <v>0.0003550275682332471</v>
+        <v>0.0007658616287674862</v>
       </c>
       <c r="T25">
-        <v>0.0002553768282134048</v>
+        <v>0.0005617882908420255</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H26">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I26">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J26">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N26">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O26">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P26">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q26">
-        <v>2586.059123728078</v>
+        <v>2203.749932615196</v>
       </c>
       <c r="R26">
-        <v>23274.5321135527</v>
+        <v>19833.74939353677</v>
       </c>
       <c r="S26">
-        <v>0.08059589530676814</v>
+        <v>0.06314505258793794</v>
       </c>
       <c r="T26">
-        <v>0.08696081354845596</v>
+        <v>0.06947890422241799</v>
       </c>
     </row>
   </sheetData>
